--- a/Agranari/Species_Templates.xlsx
+++ b/Agranari/Species_Templates.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f006ce66eba70ab/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiel\Documents\Stories\DnD-Stories\Agranari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{618EBE32-C3A2-4EF7-A7BF-BF8E181BF1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52092320-B3FC-4A28-9EBF-D862FF33141F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3DCB1-A818-4D25-9B7F-08FFB1602641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{6B096DA7-CFA8-4C5C-A879-5A8B21184BB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bear" sheetId="1" r:id="rId1"/>
+    <sheet name="Deer" sheetId="2" r:id="rId1"/>
+    <sheet name="Bear" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>BloodlustMaxRange</t>
   </si>
@@ -105,13 +106,79 @@
   </si>
   <si>
     <t>Bonus Damage</t>
+  </si>
+  <si>
+    <t>BendingPower</t>
+  </si>
+  <si>
+    <t>HoofLength</t>
+  </si>
+  <si>
+    <t>HoofLife</t>
+  </si>
+  <si>
+    <t>BendCastTime</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>rounds</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>1d10</t>
+  </si>
+  <si>
+    <t>1d100</t>
+  </si>
+  <si>
+    <t>BonusBendPower</t>
+  </si>
+  <si>
+    <t>DistancePerBendingPowerReduction</t>
+  </si>
+  <si>
+    <t>1d20 (Disadv)</t>
+  </si>
+  <si>
+    <t>DistantBendPower</t>
+  </si>
+  <si>
+    <t>DistantBendCastTime</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>SoftMaxBendingRange</t>
+  </si>
+  <si>
+    <t>DistantBendPercentAdd</t>
+  </si>
+  <si>
+    <t>MaxBendingRange</t>
+  </si>
+  <si>
+    <t>TouchBonusBendingPower</t>
+  </si>
+  <si>
+    <t>1d10 (Disadv)</t>
+  </si>
+  <si>
+    <t>Die</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +188,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,20 +243,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,10 +578,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE37CB70-2D27-4892-9A0E-2EB7AE2FAFFD}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="32.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" customWidth="1"/>
+    <col min="12" max="12" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f>C4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <f>(C5+20)/240</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>C6+D4</f>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <f>(IF(H7=0,D11,1))</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f>C7*5</f>
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7">
+        <f>(D4-(H7/D7))*J6</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f>MAX(1,23-(D4+C8))</f>
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="8">
+        <f>IF(J7&gt;0,ROUNDDOWN((D4/J7)*D8,0),"OoB")</f>
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <f>IF(J7&gt;0,J8*6/60,"OoB")</f>
+        <v>0.4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f>(D4-1)*D7</f>
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="9">
+        <f>IF(J7&gt;0,1/J8,0)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <f>D4*D7</f>
+        <v>210</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>(C11/5)+1</f>
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54198961-A6A3-46E4-9FB5-2E30BF5550C8}">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
@@ -536,14 +867,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -551,7 +882,7 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5">
@@ -563,7 +894,7 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6">
@@ -578,7 +909,7 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>14</v>
       </c>
       <c r="C7">
@@ -588,7 +919,7 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>11</v>
       </c>
       <c r="H7">
@@ -600,7 +931,7 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>8</v>
       </c>
       <c r="C8">
@@ -610,7 +941,7 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>16</v>
       </c>
       <c r="H8">
@@ -643,7 +974,7 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11">
@@ -653,7 +984,7 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="2"/>
       <c r="H11">
         <f>G11+C11</f>
         <v>3</v>
@@ -670,7 +1001,7 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>10</v>
       </c>
       <c r="H12" t="str">

--- a/Agranari/Species_Templates.xlsx
+++ b/Agranari/Species_Templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiel\Documents\Stories\DnD-Stories\Agranari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3DCB1-A818-4D25-9B7F-08FFB1602641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B25C89-028E-458B-925C-AD81B69255D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{6B096DA7-CFA8-4C5C-A879-5A8B21184BB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>BloodlustMaxRange</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Die</t>
+  </si>
+  <si>
+    <t>1d20</t>
   </si>
 </sst>
 </file>
@@ -251,19 +254,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,26 +605,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -634,14 +637,14 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
@@ -668,7 +671,7 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>(C5+20)/240</f>
         <v>8.7499999999999994E-2</v>
       </c>
@@ -727,7 +730,7 @@
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>(D4-(H7/D7))*J6</f>
         <v>10.8</v>
       </c>
@@ -752,7 +755,7 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <f>IF(J7&gt;0,ROUNDDOWN((D4/J7)*D8,0),"OoB")</f>
         <v>4</v>
       </c>
@@ -781,7 +784,7 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <f>IF(J7&gt;0,1/J8,0)</f>
         <v>0.25</v>
       </c>
@@ -825,193 +828,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54198961-A6A3-46E4-9FB5-2E30BF5550C8}">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="C5">
-        <f>B5</f>
+      <c r="D5">
+        <f>C5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="C6">
-        <f>B6</f>
+      <c r="D6">
+        <f>C6</f>
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2">
         <v>14</v>
       </c>
-      <c r="C7">
-        <f>MAX(3,25-B7-C5)</f>
+      <c r="D7">
+        <f>MAX(3,25-C7-D5)</f>
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>11</v>
       </c>
-      <c r="H7">
-        <f>ROUNDUP(G7/C7,0)</f>
+      <c r="I7">
+        <f>ROUNDUP(H7/D7,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
         <v>8</v>
       </c>
-      <c r="C8">
-        <f>B8*C5/100</f>
+      <c r="D8">
+        <f>C8*D5/100</f>
         <v>0.08</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>16</v>
       </c>
-      <c r="H8">
-        <f>ROUNDUP(G8*C8,0)</f>
+      <c r="I8">
+        <f>ROUNDUP(H8*D8,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <f>ROUNDUP((C4*C5/10)/5,0)*5</f>
+      <c r="D9">
+        <f>ROUNDUP((D4*D5/10)/5,0)*5</f>
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <f>C5</f>
+      <c r="D10">
+        <f>D5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="C11">
-        <f>B11</f>
+      <c r="D11">
+        <f>C11</f>
         <v>3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11">
-        <f>G11+C11</f>
+      <c r="H11" s="2"/>
+      <c r="I11">
+        <f>H11+D11</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
-        <f>10+C5</f>
+      <c r="D12">
+        <f>10+D5</f>
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" t="str">
-        <f>IF(G12&gt;=C12,"SUCCESS","Failure")</f>
+      <c r="I12" t="str">
+        <f>IF(H12&gt;=D12,"SUCCESS","Failure")</f>
         <v>Failure</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Agranari/Species_Templates.xlsx
+++ b/Agranari/Species_Templates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiel\Documents\Stories\DnD-Stories\Agranari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B25C89-028E-458B-925C-AD81B69255D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72953C2-1216-4360-85BE-D61E14A1A925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{6B096DA7-CFA8-4C5C-A879-5A8B21184BB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Deer" sheetId="2" r:id="rId1"/>
-    <sheet name="Bear" sheetId="1" r:id="rId2"/>
+    <sheet name="Wolf" sheetId="3" r:id="rId1"/>
+    <sheet name="Deer" sheetId="2" r:id="rId2"/>
+    <sheet name="Bear" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>BloodlustMaxRange</t>
   </si>
@@ -172,6 +173,156 @@
   </si>
   <si>
     <t>1d20</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>HighSightPower</t>
+  </si>
+  <si>
+    <t>1d10 (Disadv x2)</t>
+  </si>
+  <si>
+    <t>HindSightUnit</t>
+  </si>
+  <si>
+    <t>1d10 (Disadv x3)</t>
+  </si>
+  <si>
+    <t>HindSightMaxRewind</t>
+  </si>
+  <si>
+    <t>1d100 (Disadv x2)</t>
+  </si>
+  <si>
+    <t>RewindsThisHindSight</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>HindSightRewindSpeed</t>
+  </si>
+  <si>
+    <t>ForwardsThisHindSight</t>
+  </si>
+  <si>
+    <t>HindSightForwardSpeed</t>
+  </si>
+  <si>
+    <t>1d100 (Disadv)</t>
+  </si>
+  <si>
+    <t>HindSightTrackHead</t>
+  </si>
+  <si>
+    <t>AdrenalinePower</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>AdrenalineDuration</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>AdrenalineACBonus</t>
+  </si>
+  <si>
+    <t>AC bonus</t>
+  </si>
+  <si>
+    <t>Base AC</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AdrenalineToHitBonus</t>
+  </si>
+  <si>
+    <t>atk bonus</t>
+  </si>
+  <si>
+    <t>Bonus AC</t>
+  </si>
+  <si>
+    <t>AdrenalineMovementBonus</t>
+  </si>
+  <si>
+    <t>Total General AC</t>
+  </si>
+  <si>
+    <t>JumpACBonus</t>
+  </si>
+  <si>
+    <t>AdrenalineCharges</t>
+  </si>
+  <si>
+    <t>2d4</t>
+  </si>
+  <si>
+    <t>charges</t>
+  </si>
+  <si>
+    <t>Adrenaline Rush duration</t>
+  </si>
+  <si>
+    <t>EnemyCCSaveBonus</t>
+  </si>
+  <si>
+    <t>1d10 (Ax1, Dx1)</t>
+  </si>
+  <si>
+    <t>DEX save bonus</t>
+  </si>
+  <si>
+    <t>Exhaustion gained</t>
+  </si>
+  <si>
+    <t>exhaustion</t>
+  </si>
+  <si>
+    <t>TrackPreyMinTime</t>
+  </si>
+  <si>
+    <t>TrackPreyCritRange</t>
+  </si>
+  <si>
+    <t>crit range</t>
+  </si>
+  <si>
+    <t>TrackPreyToHitBonus</t>
+  </si>
+  <si>
+    <t>ProneEnemyACBonus</t>
+  </si>
+  <si>
+    <t>1d10 (Adv)</t>
+  </si>
+  <si>
+    <t>LickWoundsHeal</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>Opponent</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Dodge</t>
   </si>
 </sst>
 </file>
@@ -213,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -245,12 +396,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -267,6 +455,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +772,510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6C442-DD69-4ACA-B2EF-5810317D8DB0}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>C5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(C6=1,"Seconds",IF(C6=2,"Minutes",IF(C6=3,"Hours",IF(C6=4,"Days",IF(C6=5,"Weeks",IF(C6=6,"Months",IF(C6=7,"Years",IF(C6=8,"Decades",IF(C6=9,"Centuries",IF(C6=10,"Millenia","INVALID"))))))))))</f>
+        <v>Weeks</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f>C7</f>
+        <v>8</v>
+      </c>
+      <c r="E7" t="str">
+        <f>E6</f>
+        <v>Weeks</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <f>D7*C8/100</f>
+        <v>1.52</v>
+      </c>
+      <c r="E8" t="str">
+        <f>E6</f>
+        <v>Weeks</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f>D7*C9/100</f>
+        <v>3.2</v>
+      </c>
+      <c r="E9" t="str">
+        <f>E6</f>
+        <v>Weeks</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="6">
+        <f>MIN(0,MAX(-D7,-(H7*D8)+(H8*D9)))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <f>E6</f>
+        <v>Weeks</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f>C6</f>
+        <v>5</v>
+      </c>
+      <c r="J10" s="6">
+        <f>J9*7</f>
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>C11+D10</f>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="6">
+        <f>J10/30</f>
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>ROUNDUP(C12+D10/2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>ROUNDUP(C13+D10/2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f>ROUNDUP((D4*C14*D10/75)/5,0)*5</f>
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14">
+        <f>H12+H13</f>
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f>C15</f>
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <f>C16</f>
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <f>C17</f>
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <f>ROUNDUP(ROUNDDOWN(H16/(D11/2),0)*(D11/2)/D11,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="14">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <f>11-C18</f>
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f>C20</f>
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f>C21</f>
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f>ROUNDUP(C22/2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE37CB70-2D27-4892-9A0E-2EB7AE2FAFFD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +1517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54198961-A6A3-46E4-9FB5-2E30BF5550C8}">
   <dimension ref="A2:I12"/>
   <sheetViews>
